--- a/Doku/zeitplan_HungerSatt.xlsx
+++ b/Doku/zeitplan_HungerSatt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://htlsaalfelden322-my.sharepoint.com/personal/johannes_ellmer_htl-saalfelden_at/Documents/Dokumente/GitHub/Diplomarbeit_Bestellapp/Doku/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3460CF72-AC89-4CED-8824-3C5C9549F2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{3460CF72-AC89-4CED-8824-3C5C9549F2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{100A4EEB-4929-452C-B2FF-7C481F16DCED}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{72F4632B-4B3C-4A8B-9C92-C659B892C97E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>HungerSatt Online-Bestellservice</t>
   </si>
@@ -134,12 +134,6 @@
     <t>Hosting</t>
   </si>
   <si>
-    <t>Frontend über Azure</t>
-  </si>
-  <si>
-    <t>Server aufsetzen</t>
-  </si>
-  <si>
     <t>Backend und DB hosten</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
     <t>Dashboard</t>
   </si>
   <si>
-    <t>Finanz und Useransicht</t>
-  </si>
-  <si>
     <t>Datenschutz und Datensicherheit</t>
   </si>
   <si>
@@ -165,6 +156,12 @@
   </si>
   <si>
     <t>Puffer</t>
+  </si>
+  <si>
+    <t>Hosting des Frontend</t>
+  </si>
+  <si>
+    <t>Proxmox Server aufsetzen und einrichten</t>
   </si>
 </sst>
 </file>
@@ -207,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,8 +223,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -472,6 +475,100 @@
         <color indexed="64"/>
       </top>
       <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -489,116 +586,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -616,6 +623,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -623,6 +710,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -706,10 +799,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1029,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875DED61-2A9A-40C9-A51B-4495B2B330E0}">
-  <dimension ref="A1:AJ52"/>
+  <dimension ref="A1:AI51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AE51" sqref="AE51"/>
+      <selection activeCell="A48" sqref="A48:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1051,987 +1140,828 @@
       <c r="A3" s="1"/>
     </row>
     <row r="19" spans="1:34" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C19" s="36"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
     </row>
     <row r="20" spans="1:34" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="50" t="s">
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="50" t="s">
+      <c r="E20" s="65"/>
+      <c r="F20" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52" t="s">
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52" t="s">
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52" t="s">
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52" t="s">
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52" t="s">
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="53"/>
-      <c r="AE20" s="37" t="s">
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="38"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="54"/>
     </row>
     <row r="21" spans="1:34" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="56" t="s">
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="24">
         <v>37</v>
       </c>
-      <c r="G21" s="59">
+      <c r="G21" s="25">
         <v>38</v>
       </c>
-      <c r="H21" s="59">
+      <c r="H21" s="25">
         <v>39</v>
       </c>
-      <c r="I21" s="59">
+      <c r="I21" s="25">
         <v>40</v>
       </c>
-      <c r="J21" s="59">
+      <c r="J21" s="25">
         <v>41</v>
       </c>
-      <c r="K21" s="59">
+      <c r="K21" s="25">
         <v>42</v>
       </c>
-      <c r="L21" s="59">
+      <c r="L21" s="25">
         <v>43</v>
       </c>
-      <c r="M21" s="59">
+      <c r="M21" s="25">
         <v>44</v>
       </c>
-      <c r="N21" s="59">
+      <c r="N21" s="25">
         <v>45</v>
       </c>
-      <c r="O21" s="59">
+      <c r="O21" s="25">
         <v>46</v>
       </c>
-      <c r="P21" s="59">
+      <c r="P21" s="25">
         <v>47</v>
       </c>
-      <c r="Q21" s="59">
+      <c r="Q21" s="25">
         <v>48</v>
       </c>
-      <c r="R21" s="59">
+      <c r="R21" s="25">
         <v>49</v>
       </c>
-      <c r="S21" s="59">
+      <c r="S21" s="25">
         <v>50</v>
       </c>
-      <c r="T21" s="59">
+      <c r="T21" s="25">
         <v>51</v>
       </c>
-      <c r="U21" s="59">
+      <c r="U21" s="25">
         <v>52</v>
       </c>
-      <c r="V21" s="59">
+      <c r="V21" s="25">
         <v>1</v>
       </c>
-      <c r="W21" s="59">
+      <c r="W21" s="25">
         <v>2</v>
       </c>
-      <c r="X21" s="59">
+      <c r="X21" s="25">
         <v>3</v>
       </c>
-      <c r="Y21" s="59">
+      <c r="Y21" s="25">
         <v>4</v>
       </c>
-      <c r="Z21" s="59">
+      <c r="Z21" s="25">
         <v>5</v>
       </c>
-      <c r="AA21" s="59">
+      <c r="AA21" s="25">
         <v>6</v>
       </c>
-      <c r="AB21" s="59">
+      <c r="AB21" s="25">
         <v>7</v>
       </c>
-      <c r="AC21" s="59">
+      <c r="AC21" s="25">
         <v>8</v>
       </c>
-      <c r="AD21" s="60">
+      <c r="AD21" s="26">
         <v>9</v>
       </c>
-      <c r="AE21" s="61">
+      <c r="AE21" s="27">
         <v>10</v>
       </c>
-      <c r="AF21" s="61">
+      <c r="AF21" s="27">
         <v>11</v>
       </c>
-      <c r="AG21" s="61">
+      <c r="AG21" s="27">
         <v>12</v>
       </c>
-      <c r="AH21" s="62">
+      <c r="AH21" s="28">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="11">
-        <v>1</v>
-      </c>
-      <c r="E22" s="12">
-        <v>1</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="AE22" s="36"/>
-      <c r="AF22" s="36"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="12"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="AH22" s="8"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="11">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="7">
         <v>10</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="8">
         <v>10</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="36"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="12"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="AH23" s="8"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="11">
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="7">
         <v>5</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="8">
         <v>5</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="12"/>
+      <c r="H24" s="29"/>
+      <c r="AH24" s="8"/>
     </row>
     <row r="25" spans="1:34" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="29">
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="15">
         <f>SUM(D22:D24)</f>
+        <v>17</v>
+      </c>
+      <c r="E25" s="16">
+        <f>SUM(E22:E24)</f>
+        <v>17</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="10"/>
+    </row>
+    <row r="26" spans="1:34" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="30">
-        <f>SUM(E22:E24)</f>
-        <v>16</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="14"/>
-    </row>
-    <row r="26" spans="1:34" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="11"/>
       <c r="D26">
         <v>10</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="8">
         <v>10</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="36"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="12"/>
+      <c r="I26" s="5"/>
+      <c r="AH26" s="8"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="5">
-        <f>SUM(D28:D34)</f>
-        <v>52</v>
-      </c>
-      <c r="E27" s="28">
-        <f>SUM(E28:E34)</f>
-        <v>52</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="36"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="12"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="4">
+        <f>SUM(D28:D33)</f>
+        <v>41</v>
+      </c>
+      <c r="E27" s="14">
+        <f>SUM(E28:E33)</f>
+        <v>42</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="AH27" s="8"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
       <c r="D28">
         <v>9</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="8">
         <f>-E2</f>
         <v>0</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="6"/>
-      <c r="Z28" s="9"/>
+      <c r="H28" s="5"/>
+      <c r="Z28" s="4"/>
       <c r="AA28" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="36"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="AH28" s="8"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="11">
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="7">
         <v>8</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="8">
         <v>0</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="6"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="12"/>
-    </row>
-    <row r="30" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="11">
+      <c r="I29" s="5"/>
+      <c r="AH29" s="8"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A30" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30">
         <v>10</v>
       </c>
-      <c r="E30" s="12">
-        <v>10</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="6"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="36"/>
-      <c r="AG30" s="36"/>
-      <c r="AH30" s="12"/>
-    </row>
-    <row r="31" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
+      <c r="E30" s="8">
+        <v>7</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="AH30" s="8"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A31" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="7">
         <v>10</v>
       </c>
-      <c r="E31" s="12">
-        <v>7</v>
-      </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="6"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="36"/>
-      <c r="AG31" s="36"/>
-      <c r="AH31" s="12"/>
+      <c r="E31" s="8">
+        <v>2</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="AH31" s="8"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="11">
+      <c r="A32" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
+        <v>25</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="AH32" s="8"/>
+    </row>
+    <row r="33" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="17">
+        <v>4</v>
+      </c>
+      <c r="E33" s="10">
+        <v>8</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="10"/>
+    </row>
+    <row r="34" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="4">
+        <f>SUM(D35:D39)</f>
+        <v>30</v>
+      </c>
+      <c r="E34" s="14">
+        <f>SUM(E35:E39)</f>
+        <v>32</v>
+      </c>
+      <c r="M34" s="6"/>
+      <c r="AH34" s="8"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A35" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8">
         <v>10</v>
       </c>
-      <c r="E32" s="12">
-        <v>2</v>
-      </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="AE32" s="36"/>
-      <c r="AF32" s="36"/>
-      <c r="AG32" s="36"/>
-      <c r="AH32" s="12"/>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="11">
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="AH35" s="8"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A36" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>15</v>
+      </c>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="AH36" s="8"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A37" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
+      <c r="D37">
+        <v>15</v>
+      </c>
+      <c r="E37" s="8">
+        <v>5</v>
+      </c>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="AH37" s="8"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A38" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38" s="8">
         <v>1</v>
       </c>
-      <c r="E33" s="12">
-        <v>25</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="36"/>
-      <c r="AA33" s="36"/>
-      <c r="AB33" s="36"/>
-      <c r="AC33" s="36"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
-      <c r="AF33" s="36"/>
-      <c r="AG33" s="36"/>
-      <c r="AH33" s="12"/>
-    </row>
-    <row r="34" spans="1:36" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="33">
-        <v>4</v>
-      </c>
-      <c r="E34" s="14">
-        <v>8</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="14"/>
-    </row>
-    <row r="35" spans="1:36" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="5">
-        <f>SUM(D36:D39)</f>
-        <v>17</v>
-      </c>
-      <c r="E35" s="28">
-        <v>25</v>
-      </c>
-      <c r="M35" s="10"/>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="12"/>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="11">
-        <v>0</v>
-      </c>
-      <c r="E36" s="12">
-        <v>10</v>
-      </c>
-      <c r="M36" s="6"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="AE36" s="36"/>
-      <c r="AF36" s="36"/>
-      <c r="AG36" s="36"/>
-      <c r="AH36" s="12"/>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A37" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" s="12">
-        <v>15</v>
-      </c>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="AE37" s="36"/>
-      <c r="AF37" s="36"/>
-      <c r="AG37" s="36"/>
-      <c r="AH37" s="12"/>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A38" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-      <c r="D38">
-        <v>12</v>
-      </c>
-      <c r="E38" s="12">
-        <v>1</v>
-      </c>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="36"/>
-      <c r="AG38" s="36"/>
-      <c r="AH38" s="12"/>
-    </row>
-    <row r="39" spans="1:36" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="21" t="s">
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="AH38" s="8"/>
+    </row>
+    <row r="39" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
       <c r="D39">
         <v>5</v>
       </c>
-      <c r="E39" s="12">
-        <v>0</v>
-      </c>
-      <c r="O39" s="8"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="14"/>
-    </row>
-    <row r="40" spans="1:36" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="39" t="s">
+      <c r="E39" s="8">
+        <v>1</v>
+      </c>
+      <c r="O39" s="5"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="10"/>
+    </row>
+    <row r="40" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="42">
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="18">
         <f>SUM(D41:D43)</f>
-        <v>32</v>
-      </c>
-      <c r="E40" s="43">
+        <v>38</v>
+      </c>
+      <c r="E40" s="19">
         <f>SUM(E41:E43)</f>
-        <v>17</v>
-      </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="25"/>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="25"/>
-      <c r="Z40" s="25"/>
-      <c r="AA40" s="25"/>
-      <c r="AB40" s="25"/>
-      <c r="AC40" s="25"/>
-      <c r="AD40" s="25"/>
-      <c r="AE40" s="36"/>
-      <c r="AF40" s="36"/>
-      <c r="AG40" s="36"/>
-      <c r="AH40" s="12"/>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="13"/>
+      <c r="AH40" s="8"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="11">
-        <v>5</v>
-      </c>
-      <c r="E41" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="AE41" s="36"/>
-      <c r="AF41" s="36"/>
-      <c r="AG41" s="36"/>
-      <c r="AH41" s="12"/>
-    </row>
-    <row r="42" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="7">
-        <v>12</v>
-      </c>
-      <c r="E42" s="12">
+      <c r="C41" s="8"/>
+      <c r="D41" s="7">
+        <v>8</v>
+      </c>
+      <c r="E41" s="8">
+        <v>6</v>
+      </c>
+      <c r="R41" s="5"/>
+      <c r="AH41" s="8"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42">
+        <v>15</v>
+      </c>
+      <c r="E42" s="8">
         <v>10</v>
       </c>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="AE42" s="36"/>
-      <c r="AF42" s="36"/>
-      <c r="AG42" s="36"/>
-      <c r="AH42" s="12"/>
-    </row>
-    <row r="43" spans="1:36" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S42" s="5"/>
+      <c r="AH42" s="8"/>
+    </row>
+    <row r="43" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="12"/>
+      <c r="C43" s="8"/>
       <c r="D43">
         <v>15</v>
       </c>
-      <c r="E43" s="12">
-        <v>5</v>
-      </c>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="AE43" s="13"/>
-      <c r="AF43" s="13"/>
-      <c r="AG43" s="13"/>
-      <c r="AH43" s="13"/>
-      <c r="AI43" s="11"/>
-      <c r="AJ43" s="36"/>
-    </row>
-    <row r="44" spans="1:36" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="45" t="s">
+      <c r="E43" s="8">
+        <v>10</v>
+      </c>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="9"/>
+      <c r="AG43" s="9"/>
+      <c r="AH43" s="9"/>
+      <c r="AI43" s="7"/>
+    </row>
+    <row r="44" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="42">
-        <f>SUM(D45:D47)</f>
-        <v>24</v>
-      </c>
-      <c r="E44" s="43">
-        <f>SUM(E45:E47)</f>
-        <v>17</v>
-      </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="48"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="25"/>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="25"/>
-      <c r="AD44" s="25"/>
-      <c r="AE44" s="36"/>
-      <c r="AF44" s="36"/>
-      <c r="AG44" s="36"/>
-      <c r="AH44" s="12"/>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="18">
+        <f>SUM(D45:D46)</f>
+        <v>15</v>
+      </c>
+      <c r="E44" s="19">
+        <f>SUM(E45:E46)</f>
+        <v>11</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="13"/>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="13"/>
+      <c r="AH44" s="8"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="7">
+        <v>3</v>
+      </c>
+      <c r="E45" s="8">
+        <v>4</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="W45" s="5"/>
+      <c r="AH45" s="8"/>
+    </row>
+    <row r="46" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="11">
-        <v>1</v>
-      </c>
-      <c r="E45" s="12">
-        <v>3</v>
-      </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="36"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="36"/>
-      <c r="W45" s="49"/>
-      <c r="X45" s="36"/>
-      <c r="Y45" s="36"/>
-      <c r="Z45" s="36"/>
-      <c r="AA45" s="36"/>
-      <c r="AB45" s="36"/>
-      <c r="AC45" s="36"/>
-      <c r="AD45" s="36"/>
-      <c r="AE45" s="36"/>
-      <c r="AF45" s="36"/>
-      <c r="AG45" s="36"/>
-      <c r="AH45" s="12"/>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="9">
+        <v>12</v>
+      </c>
+      <c r="E46" s="10">
+        <v>7</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="9"/>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="9"/>
+      <c r="AG46" s="9"/>
+      <c r="AH46" s="10"/>
+    </row>
+    <row r="47" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46">
-        <v>17</v>
-      </c>
-      <c r="E46" s="12">
-        <v>10</v>
-      </c>
-      <c r="W46" s="8"/>
-      <c r="X46" s="8"/>
-      <c r="Y46" s="8"/>
-      <c r="AE46" s="36"/>
-      <c r="AF46" s="36"/>
-      <c r="AG46" s="36"/>
-      <c r="AH46" s="12"/>
-    </row>
-    <row r="47" spans="1:36" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="13" t="s">
+      <c r="B47" s="37"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="4">
+        <v>60</v>
+      </c>
+      <c r="E47" s="14">
+        <v>65</v>
+      </c>
+      <c r="Z47" s="5"/>
+      <c r="AH47" s="8"/>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A48" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48">
+        <v>18</v>
+      </c>
+      <c r="E48" s="8">
+        <v>23</v>
+      </c>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AH48" s="8"/>
+    </row>
+    <row r="49" spans="1:34" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="13">
-        <v>6</v>
-      </c>
-      <c r="E47" s="14">
-        <v>4</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="13"/>
-      <c r="AB47" s="13"/>
-      <c r="AC47" s="13"/>
-      <c r="AD47" s="13"/>
-      <c r="AE47" s="13"/>
-      <c r="AF47" s="13"/>
-      <c r="AG47" s="13"/>
-      <c r="AH47" s="14"/>
-    </row>
-    <row r="48" spans="1:36" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="26" t="s">
+      <c r="C49" s="8"/>
+      <c r="D49" s="33">
+        <v>40</v>
+      </c>
+      <c r="E49" s="34">
+        <v>40</v>
+      </c>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AH49" s="8"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A50" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="5">
-        <v>60</v>
-      </c>
-      <c r="E48" s="28">
-        <v>65</v>
-      </c>
-      <c r="Z48" s="8"/>
-      <c r="AE48" s="36"/>
-      <c r="AF48" s="36"/>
-      <c r="AG48" s="36"/>
-      <c r="AH48" s="12"/>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A49" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49">
-        <v>20</v>
-      </c>
-      <c r="E49" s="12">
-        <v>25</v>
-      </c>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="8"/>
-      <c r="AC49" s="8"/>
-      <c r="AE49" s="36"/>
-      <c r="AF49" s="36"/>
-      <c r="AG49" s="36"/>
-      <c r="AH49" s="12"/>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="12"/>
-      <c r="D50">
-        <v>40</v>
-      </c>
-      <c r="E50" s="12">
-        <v>40</v>
-      </c>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="V50" s="8"/>
-      <c r="AB50" s="8"/>
-      <c r="AC50" s="8"/>
-      <c r="AD50" s="8"/>
-      <c r="AE50" s="36"/>
-      <c r="AF50" s="36"/>
-      <c r="AG50" s="36"/>
-      <c r="AH50" s="12"/>
-    </row>
-    <row r="51" spans="1:34" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="13">
-        <v>208</v>
-      </c>
-      <c r="E51" s="14">
-        <f>E48+E44+E40+E35+E27+E26+E25</f>
-        <v>202</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="13"/>
-      <c r="V51" s="13"/>
-      <c r="W51" s="13"/>
-      <c r="X51" s="13"/>
-      <c r="Y51" s="13"/>
-      <c r="Z51" s="13"/>
-      <c r="AA51" s="13"/>
-      <c r="AB51" s="13"/>
-      <c r="AC51" s="13"/>
-      <c r="AD51" s="13"/>
-      <c r="AE51" s="13"/>
-      <c r="AF51" s="13"/>
-      <c r="AG51" s="13"/>
-      <c r="AH51" s="14"/>
-    </row>
-    <row r="52" spans="1:34" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="D52" s="17"/>
-      <c r="E52" s="12"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="35">
+        <f>D25+D26+D27+D34+D40+D44+D47</f>
+        <v>211</v>
+      </c>
+      <c r="E50" s="36">
+        <f>E25+E26+E27+E34+E40+E44+E47</f>
+        <v>203</v>
+      </c>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="31"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="31"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="31"/>
+      <c r="Y50" s="31"/>
+      <c r="Z50" s="31"/>
+      <c r="AA50" s="31"/>
+      <c r="AB50" s="31"/>
+      <c r="AC50" s="31"/>
+      <c r="AD50" s="31"/>
+      <c r="AE50" s="31"/>
+      <c r="AF50" s="31"/>
+      <c r="AG50" s="31"/>
+      <c r="AH50" s="32"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="D51" s="7"/>
+      <c r="E51" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
     <mergeCell ref="AE20:AH20"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
@@ -2046,6 +1976,24 @@
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I20:M20"/>
     <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A37:C37"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Doku/zeitplan_HungerSatt.xlsx
+++ b/Doku/zeitplan_HungerSatt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://htlsaalfelden322-my.sharepoint.com/personal/johannes_ellmer_htl-saalfelden_at/Documents/Dokumente/GitHub/Diplomarbeit_Bestellapp/Doku/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{3460CF72-AC89-4CED-8824-3C5C9549F2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{100A4EEB-4929-452C-B2FF-7C481F16DCED}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{3460CF72-AC89-4CED-8824-3C5C9549F2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67ABFDA9-3A14-48AD-B30D-FDE88596E3C6}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{72F4632B-4B3C-4A8B-9C92-C659B892C97E}"/>
+    <workbookView minimized="1" xWindow="735" yWindow="735" windowWidth="18000" windowHeight="10433" xr2:uid="{72F4632B-4B3C-4A8B-9C92-C659B892C97E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +229,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="30">
     <border>
@@ -577,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -631,6 +643,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -646,12 +712,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -670,54 +730,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1121,7 +1135,7 @@
   <dimension ref="A1:AI51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:C48"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1169,65 +1183,65 @@
       <c r="AD19" s="9"/>
     </row>
     <row r="20" spans="1:34" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="64" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="65"/>
-      <c r="F20" s="64" t="s">
+      <c r="E20" s="50"/>
+      <c r="F20" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57" t="s">
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57" t="s">
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57" t="s">
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57" t="s">
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57" t="s">
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="57"/>
-      <c r="AD20" s="58"/>
-      <c r="AE20" s="53" t="s">
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="43"/>
+      <c r="AE20" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AF20" s="53"/>
-      <c r="AG20" s="53"/>
-      <c r="AH20" s="54"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="38"/>
     </row>
     <row r="21" spans="1:34" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="22" t="s">
         <v>3</v>
       </c>
@@ -1323,11 +1337,11 @@
       </c>
     </row>
     <row r="22" spans="1:34" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="7">
         <v>2</v>
       </c>
@@ -1339,11 +1353,11 @@
       <c r="AH22" s="8"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="7">
         <v>10</v>
       </c>
@@ -1356,11 +1370,11 @@
       <c r="AH23" s="8"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="7">
         <v>5</v>
       </c>
@@ -1371,11 +1385,11 @@
       <c r="AH24" s="8"/>
     </row>
     <row r="25" spans="1:34" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="15">
         <f>SUM(D22:D24)</f>
         <v>17</v>
@@ -1426,15 +1440,17 @@
       <c r="E26" s="8">
         <v>10</v>
       </c>
-      <c r="I26" s="5"/>
+      <c r="I26" s="66"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
       <c r="AH26" s="8"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="4">
         <f>SUM(D28:D33)</f>
         <v>41</v>
@@ -1443,15 +1459,15 @@
         <f>SUM(E28:E33)</f>
         <v>42</v>
       </c>
-      <c r="I27" s="5"/>
+      <c r="I27" s="29"/>
       <c r="AH27" s="8"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="53"/>
       <c r="D28">
         <v>9</v>
       </c>
@@ -1459,7 +1475,7 @@
         <f>-E2</f>
         <v>0</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="29"/>
       <c r="Z28" s="4"/>
       <c r="AA28" t="s">
         <v>39</v>
@@ -1467,75 +1483,77 @@
       <c r="AH28" s="8"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="7">
         <v>8</v>
       </c>
       <c r="E29" s="8">
         <v>0</v>
       </c>
-      <c r="I29" s="5"/>
+      <c r="I29" s="29"/>
       <c r="AH29" s="8"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="53"/>
       <c r="D30">
         <v>10</v>
       </c>
       <c r="E30" s="8">
         <v>7</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
       <c r="AH30" s="8"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="7">
         <v>10</v>
       </c>
       <c r="E31" s="8">
         <v>2</v>
       </c>
-      <c r="I31" s="5"/>
+      <c r="I31" s="29"/>
       <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
       <c r="AH31" s="8"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="7">
         <v>0</v>
       </c>
       <c r="E32" s="8">
         <v>25</v>
       </c>
-      <c r="K32" s="5"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="29"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="AH32" s="8"/>
     </row>
     <row r="33" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="17">
         <v>4</v>
       </c>
@@ -1573,11 +1591,11 @@
       <c r="AH33" s="10"/>
     </row>
     <row r="34" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="4">
         <f>SUM(D35:D39)</f>
         <v>30</v>
@@ -1590,11 +1608,11 @@
       <c r="AH34" s="8"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="7">
         <v>0</v>
       </c>
@@ -1606,11 +1624,11 @@
       <c r="AH35" s="8"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="53"/>
       <c r="D36">
         <v>0</v>
       </c>
@@ -1622,11 +1640,11 @@
       <c r="AH36" s="8"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="53"/>
       <c r="D37">
         <v>15</v>
       </c>
@@ -1639,11 +1657,11 @@
       <c r="AH37" s="8"/>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="53"/>
       <c r="D38">
         <v>10</v>
       </c>
@@ -1656,11 +1674,11 @@
       <c r="AH38" s="8"/>
     </row>
     <row r="39" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="53"/>
       <c r="D39">
         <v>5</v>
       </c>
@@ -1674,11 +1692,11 @@
       <c r="AH39" s="10"/>
     </row>
     <row r="40" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="18">
         <f>SUM(D41:D43)</f>
         <v>38</v>
@@ -1762,11 +1780,11 @@
       <c r="AI43" s="7"/>
     </row>
     <row r="44" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="49"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="18">
         <f>SUM(D45:D46)</f>
         <v>15</v>
@@ -1860,11 +1878,11 @@
       <c r="AH46" s="10"/>
     </row>
     <row r="47" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="38"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="56"/>
       <c r="D47" s="4">
         <v>60</v>
       </c>
@@ -1875,11 +1893,11 @@
       <c r="AH47" s="8"/>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="53"/>
       <c r="D48">
         <v>18</v>
       </c>
@@ -1913,11 +1931,11 @@
       <c r="AH49" s="8"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="41"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="59"/>
       <c r="D50" s="35">
         <f>D25+D26+D27+D34+D40+D44+D47</f>
         <v>211</v>
@@ -1962,6 +1980,24 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
     <mergeCell ref="AE20:AH20"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
@@ -1976,24 +2012,6 @@
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I20:M20"/>
     <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A37:C37"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Doku/zeitplan_HungerSatt.xlsx
+++ b/Doku/zeitplan_HungerSatt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://htlsaalfelden322-my.sharepoint.com/personal/johannes_ellmer_htl-saalfelden_at/Documents/Dokumente/GitHub/Diplomarbeit_Bestellapp/Doku/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{3460CF72-AC89-4CED-8824-3C5C9549F2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67ABFDA9-3A14-48AD-B30D-FDE88596E3C6}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{3460CF72-AC89-4CED-8824-3C5C9549F2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F08F4E60-AAE5-49AB-B84A-C81A912A30C3}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="735" yWindow="735" windowWidth="18000" windowHeight="10433" xr2:uid="{72F4632B-4B3C-4A8B-9C92-C659B892C97E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{72F4632B-4B3C-4A8B-9C92-C659B892C97E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
     <t>Hosting des Frontend</t>
   </si>
   <si>
-    <t>Proxmox Server aufsetzen und einrichten</t>
+    <t>Hosting Planen</t>
   </si>
 </sst>
 </file>
@@ -643,15 +643,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -685,53 +732,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:AI51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1183,65 +1183,65 @@
       <c r="AD19" s="9"/>
     </row>
     <row r="20" spans="1:34" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="49" t="s">
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="49" t="s">
+      <c r="E20" s="67"/>
+      <c r="F20" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42" t="s">
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42" t="s">
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42" t="s">
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42" t="s">
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42" t="s">
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="43"/>
-      <c r="AE20" s="37" t="s">
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="60"/>
+      <c r="AE20" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="38"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="55"/>
+      <c r="AH20" s="56"/>
     </row>
     <row r="21" spans="1:34" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="22" t="s">
         <v>3</v>
       </c>
@@ -1337,11 +1337,11 @@
       </c>
     </row>
     <row r="22" spans="1:34" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="7">
         <v>2</v>
       </c>
@@ -1353,11 +1353,11 @@
       <c r="AH22" s="8"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="7">
         <v>10</v>
       </c>
@@ -1370,11 +1370,11 @@
       <c r="AH23" s="8"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="7">
         <v>5</v>
       </c>
@@ -1385,11 +1385,11 @@
       <c r="AH24" s="8"/>
     </row>
     <row r="25" spans="1:34" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="15">
         <f>SUM(D22:D24)</f>
         <v>17</v>
@@ -1440,17 +1440,19 @@
       <c r="E26" s="8">
         <v>10</v>
       </c>
-      <c r="I26" s="66"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
+      <c r="I26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
       <c r="AH26" s="8"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="4">
         <f>SUM(D28:D33)</f>
         <v>41</v>
@@ -1463,11 +1465,11 @@
       <c r="AH27" s="8"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="53"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
       <c r="D28">
         <v>9</v>
       </c>
@@ -1483,11 +1485,11 @@
       <c r="AH28" s="8"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="7">
         <v>8</v>
       </c>
@@ -1498,11 +1500,11 @@
       <c r="AH29" s="8"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="53"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
       <c r="D30">
         <v>10</v>
       </c>
@@ -1514,11 +1516,11 @@
       <c r="AH30" s="8"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="7">
         <v>10</v>
       </c>
@@ -1526,26 +1528,26 @@
         <v>2</v>
       </c>
       <c r="I31" s="29"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
       <c r="AH31" s="8"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="7">
         <v>0</v>
       </c>
       <c r="E32" s="8">
         <v>25</v>
       </c>
-      <c r="J32" s="66"/>
+      <c r="J32" s="37"/>
       <c r="K32" s="29"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
       <c r="AH32" s="8"/>
     </row>
     <row r="33" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1591,11 +1593,11 @@
       <c r="AH33" s="10"/>
     </row>
     <row r="34" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
       <c r="D34" s="4">
         <f>SUM(D35:D39)</f>
         <v>30</v>
@@ -1608,77 +1610,77 @@
       <c r="AH34" s="8"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="7">
         <v>0</v>
       </c>
       <c r="E35" s="8">
         <v>10</v>
       </c>
-      <c r="N35" s="5"/>
+      <c r="N35" s="29"/>
       <c r="O35" s="5"/>
       <c r="AH35" s="8"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="53"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="45"/>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" s="8">
         <v>15</v>
       </c>
-      <c r="O36" s="5"/>
+      <c r="O36" s="29"/>
       <c r="P36" s="5"/>
       <c r="AH36" s="8"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="53"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="45"/>
       <c r="D37">
         <v>15</v>
       </c>
       <c r="E37" s="8">
         <v>5</v>
       </c>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
       <c r="P37" s="5"/>
       <c r="AH37" s="8"/>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="53"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="45"/>
       <c r="D38">
         <v>10</v>
       </c>
       <c r="E38" s="8">
         <v>1</v>
       </c>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
       <c r="AH38" s="8"/>
     </row>
     <row r="39" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="53"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="45"/>
       <c r="D39">
         <v>5</v>
       </c>
@@ -1692,11 +1694,11 @@
       <c r="AH39" s="10"/>
     </row>
     <row r="40" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="61"/>
-      <c r="C40" s="62"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="18">
         <f>SUM(D41:D43)</f>
         <v>38</v>
@@ -1780,11 +1782,11 @@
       <c r="AI43" s="7"/>
     </row>
     <row r="44" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="63" t="s">
+      <c r="A44" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="64"/>
-      <c r="C44" s="65"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
       <c r="D44" s="18">
         <f>SUM(D45:D46)</f>
         <v>15</v>
@@ -1833,6 +1835,7 @@
       </c>
       <c r="F45" s="7"/>
       <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
       <c r="AH45" s="8"/>
     </row>
     <row r="46" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1878,11 +1881,11 @@
       <c r="AH46" s="10"/>
     </row>
     <row r="47" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="55" t="s">
+      <c r="A47" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="56"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="4">
         <v>60</v>
       </c>
@@ -1893,11 +1896,11 @@
       <c r="AH47" s="8"/>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="53"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="45"/>
       <c r="D48">
         <v>18</v>
       </c>
@@ -1922,8 +1925,10 @@
       <c r="E49" s="34">
         <v>40</v>
       </c>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
       <c r="V49" s="5"/>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
@@ -1931,11 +1936,11 @@
       <c r="AH49" s="8"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A50" s="57" t="s">
+      <c r="A50" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B50" s="58"/>
-      <c r="C50" s="59"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="43"/>
       <c r="D50" s="35">
         <f>D25+D26+D27+D34+D40+D44+D47</f>
         <v>211</v>
@@ -1980,24 +1985,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
     <mergeCell ref="AE20:AH20"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
@@ -2012,6 +1999,24 @@
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I20:M20"/>
     <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A37:C37"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
